--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Shami Test 1</t>
+  </si>
+  <si>
+    <t>This is a change to the first version… This is now the second version of this file.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -357,6 +360,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -29,16 +29,23 @@
     <t>Shami Test 1</t>
   </si>
   <si>
-    <t>This is a change to the first version… This is now the second version of this file.</t>
+    <t>This is a change to the second version… This is now the third version of this file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,22 +358,27 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>